--- a/input/automation_sheet.xlsx
+++ b/input/automation_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamet\Documents\github2\AutomateOperation\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A8A4E-90FF-4165-82A0-F7916CDFAFF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE756F12-49E8-4047-925A-A24178C4C942}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{958C496B-E5AE-49B9-8B51-3EBC73CE9700}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -102,13 +102,28 @@
   <si>
     <t>Remark</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ap6.salesforce.com/005/e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00E280000012bRc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +134,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -148,12 +172,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,8 +193,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -504,7 +535,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -602,10 +633,25 @@
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.7">
@@ -685,10 +731,13 @@
       <formula1>"GoTo,Click,Select,Type,DL,UP"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{B269DB43-402D-4817-B660-E9128D663115}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/input/automation_sheet.xlsx
+++ b/input/automation_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamet\Documents\github2\AutomateOperation\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE756F12-49E8-4047-925A-A24178C4C942}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78283E8-DE3F-4058-87E8-B5EAE32D7E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{958C496B-E5AE-49B9-8B51-3EBC73CE9700}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,13 @@
   </si>
   <si>
     <t>Select</t>
+  </si>
+  <si>
+    <t>PrtScn</t>
+  </si>
+  <si>
+    <t>test1.png</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -535,7 +542,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -658,6 +665,12 @@
       <c r="A10">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A11">
@@ -728,7 +741,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B23" xr:uid="{BB8D26A7-C267-49E0-9FDE-B912CF71E9CB}">
-      <formula1>"GoTo,Click,Select,Type,DL,UP"</formula1>
+      <formula1>"GoTo,Click,Select,Type,DL,UP,PrtScn"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
